--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Comp-Itga5.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Comp-Itga5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,18 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,15 +95,6 @@
   </si>
   <si>
     <t>Itga5</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>32.8595635646703</v>
+        <v>1.524235333333333</v>
       </c>
       <c r="H2">
-        <v>32.8595635646703</v>
+        <v>4.572706</v>
       </c>
       <c r="I2">
-        <v>0.9872167173227865</v>
+        <v>0.04286319827073885</v>
       </c>
       <c r="J2">
-        <v>0.9872167173227865</v>
+        <v>0.04286319827073885</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>42.8578073733629</v>
+        <v>42.909214</v>
       </c>
       <c r="N2">
-        <v>42.8578073733629</v>
+        <v>128.727642</v>
       </c>
       <c r="O2">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="P2">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="Q2">
-        <v>1408.288845627414</v>
+        <v>65.40374010436133</v>
       </c>
       <c r="R2">
-        <v>1408.288845627414</v>
+        <v>588.6336609392521</v>
       </c>
       <c r="S2">
-        <v>0.2421580470817209</v>
+        <v>0.01038415722550339</v>
       </c>
       <c r="T2">
-        <v>0.2421580470817209</v>
+        <v>0.01038415722550339</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>32.8595635646703</v>
+        <v>1.524235333333333</v>
       </c>
       <c r="H3">
-        <v>32.8595635646703</v>
+        <v>4.572706</v>
       </c>
       <c r="I3">
-        <v>0.9872167173227865</v>
+        <v>0.04286319827073885</v>
       </c>
       <c r="J3">
-        <v>0.9872167173227865</v>
+        <v>0.04286319827073885</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>53.3594590699601</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N3">
-        <v>53.3594590699601</v>
+        <v>160.0844</v>
       </c>
       <c r="O3">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="P3">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="Q3">
-        <v>1753.368537085777</v>
+        <v>81.33543293182224</v>
       </c>
       <c r="R3">
-        <v>1753.368537085777</v>
+        <v>732.0188963864001</v>
       </c>
       <c r="S3">
-        <v>0.3014951812432084</v>
+        <v>0.01291363341332994</v>
       </c>
       <c r="T3">
-        <v>0.3014951812432084</v>
+        <v>0.01291363341332994</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>32.8595635646703</v>
+        <v>1.524235333333333</v>
       </c>
       <c r="H4">
-        <v>32.8595635646703</v>
+        <v>4.572706</v>
       </c>
       <c r="I4">
-        <v>0.9872167173227865</v>
+        <v>0.04286319827073885</v>
       </c>
       <c r="J4">
-        <v>0.9872167173227865</v>
+        <v>0.04286319827073885</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>39.0973488729948</v>
+        <v>39.98186433333333</v>
       </c>
       <c r="N4">
-        <v>39.0973488729948</v>
+        <v>119.945593</v>
       </c>
       <c r="O4">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="P4">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="Q4">
-        <v>1284.721820502263</v>
+        <v>60.94177030940645</v>
       </c>
       <c r="R4">
-        <v>1284.721820502263</v>
+        <v>548.4759327846581</v>
       </c>
       <c r="S4">
-        <v>0.2209104531801493</v>
+        <v>0.009675729912136811</v>
       </c>
       <c r="T4">
-        <v>0.2209104531801493</v>
+        <v>0.00967572991213681</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>32.8595635646703</v>
+        <v>1.524235333333333</v>
       </c>
       <c r="H5">
-        <v>32.8595635646703</v>
+        <v>4.572706</v>
       </c>
       <c r="I5">
-        <v>0.9872167173227865</v>
+        <v>0.04286319827073885</v>
       </c>
       <c r="J5">
-        <v>0.9872167173227865</v>
+        <v>0.04286319827073885</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>33.2355516879285</v>
+        <v>34.39145933333334</v>
       </c>
       <c r="N5">
-        <v>33.2355516879285</v>
+        <v>103.174378</v>
       </c>
       <c r="O5">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="P5">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="Q5">
-        <v>1092.105723296372</v>
+        <v>52.42067748076312</v>
       </c>
       <c r="R5">
-        <v>1092.105723296372</v>
+        <v>471.7860973268681</v>
       </c>
       <c r="S5">
-        <v>0.1877897350258411</v>
+        <v>0.00832283529900686</v>
       </c>
       <c r="T5">
-        <v>0.1877897350258411</v>
+        <v>0.00832283529900686</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>32.8595635646703</v>
+        <v>1.524235333333333</v>
       </c>
       <c r="H6">
-        <v>32.8595635646703</v>
+        <v>4.572706</v>
       </c>
       <c r="I6">
-        <v>0.9872167173227865</v>
+        <v>0.04286319827073885</v>
       </c>
       <c r="J6">
-        <v>0.9872167173227865</v>
+        <v>0.04286319827073885</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.17020432623986</v>
+        <v>6.474476</v>
       </c>
       <c r="N6">
-        <v>6.17020432623986</v>
+        <v>19.423428</v>
       </c>
       <c r="O6">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="P6">
-        <v>0.03531473908425267</v>
+        <v>0.03655449159125106</v>
       </c>
       <c r="Q6">
-        <v>202.7502212650824</v>
+        <v>9.868625084018667</v>
       </c>
       <c r="R6">
-        <v>202.7502212650824</v>
+        <v>88.81762575616801</v>
       </c>
       <c r="S6">
-        <v>0.03486330079186663</v>
+        <v>0.00156684242076185</v>
       </c>
       <c r="T6">
-        <v>0.03486330079186663</v>
+        <v>0.00156684242076185</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.425492277760633</v>
+        <v>33.45753233333334</v>
       </c>
       <c r="H7">
-        <v>0.425492277760633</v>
+        <v>100.372597</v>
       </c>
       <c r="I7">
-        <v>0.01278328267721355</v>
+        <v>0.9408631401537664</v>
       </c>
       <c r="J7">
-        <v>0.01278328267721355</v>
+        <v>0.9408631401537663</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>42.8578073733629</v>
+        <v>42.909214</v>
       </c>
       <c r="N7">
-        <v>42.8578073733629</v>
+        <v>128.727642</v>
       </c>
       <c r="O7">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="P7">
-        <v>0.2452937058627052</v>
+        <v>0.2422627718984814</v>
       </c>
       <c r="Q7">
-        <v>18.23566607911863</v>
+        <v>1435.636414802919</v>
       </c>
       <c r="R7">
-        <v>18.23566607911863</v>
+        <v>12920.72773322628</v>
       </c>
       <c r="S7">
-        <v>0.003135658780984234</v>
+        <v>0.2279361123107609</v>
       </c>
       <c r="T7">
-        <v>0.003135658780984234</v>
+        <v>0.2279361123107608</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.425492277760633</v>
+        <v>33.45753233333334</v>
       </c>
       <c r="H8">
-        <v>0.425492277760633</v>
+        <v>100.372597</v>
       </c>
       <c r="I8">
-        <v>0.01278328267721355</v>
+        <v>0.9408631401537664</v>
       </c>
       <c r="J8">
-        <v>0.01278328267721355</v>
+        <v>0.9408631401537663</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>53.3594590699601</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N8">
-        <v>53.3594590699601</v>
+        <v>160.0844</v>
       </c>
       <c r="O8">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="P8">
-        <v>0.3053991853590438</v>
+        <v>0.3012755448569878</v>
       </c>
       <c r="Q8">
-        <v>22.70403777975259</v>
+        <v>1785.342996354089</v>
       </c>
       <c r="R8">
-        <v>22.70403777975259</v>
+        <v>16068.0869671868</v>
       </c>
       <c r="S8">
-        <v>0.003904004115835393</v>
+        <v>0.2834590551856824</v>
       </c>
       <c r="T8">
-        <v>0.003904004115835393</v>
+        <v>0.2834590551856824</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.425492277760633</v>
+        <v>33.45753233333334</v>
       </c>
       <c r="H9">
-        <v>0.425492277760633</v>
+        <v>100.372597</v>
       </c>
       <c r="I9">
-        <v>0.01278328267721355</v>
+        <v>0.9408631401537664</v>
       </c>
       <c r="J9">
-        <v>0.01278328267721355</v>
+        <v>0.9408631401537663</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>39.0973488729948</v>
+        <v>39.98186433333333</v>
       </c>
       <c r="N9">
-        <v>39.0973488729948</v>
+        <v>119.945593</v>
       </c>
       <c r="O9">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="P9">
-        <v>0.2237709808837436</v>
+        <v>0.2257351364921847</v>
       </c>
       <c r="Q9">
-        <v>16.63562002637267</v>
+        <v>1337.694518679447</v>
       </c>
       <c r="R9">
-        <v>16.63562002637267</v>
+        <v>12039.25066811502</v>
       </c>
       <c r="S9">
-        <v>0.002860527703594243</v>
+        <v>0.212385869363076</v>
       </c>
       <c r="T9">
-        <v>0.002860527703594243</v>
+        <v>0.2123858693630759</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.425492277760633</v>
+        <v>33.45753233333334</v>
       </c>
       <c r="H10">
-        <v>0.425492277760633</v>
+        <v>100.372597</v>
       </c>
       <c r="I10">
-        <v>0.01278328267721355</v>
+        <v>0.9408631401537664</v>
       </c>
       <c r="J10">
-        <v>0.01278328267721355</v>
+        <v>0.9408631401537663</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>33.2355516879285</v>
+        <v>34.39145933333334</v>
       </c>
       <c r="N10">
-        <v>33.2355516879285</v>
+        <v>103.174378</v>
       </c>
       <c r="O10">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="P10">
-        <v>0.1902213888102547</v>
+        <v>0.1941720551610951</v>
       </c>
       <c r="Q10">
-        <v>14.14147059032795</v>
+        <v>1150.653362635519</v>
       </c>
       <c r="R10">
-        <v>14.14147059032795</v>
+        <v>10355.88026371967</v>
       </c>
       <c r="S10">
-        <v>0.002431653784413632</v>
+        <v>0.1826893295489783</v>
       </c>
       <c r="T10">
-        <v>0.002431653784413632</v>
+        <v>0.1826893295489782</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,991 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>33.45753233333334</v>
+      </c>
+      <c r="H11">
+        <v>100.372597</v>
+      </c>
+      <c r="I11">
+        <v>0.9408631401537664</v>
+      </c>
+      <c r="J11">
+        <v>0.9408631401537663</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>6.474476</v>
+      </c>
+      <c r="N11">
+        <v>19.423428</v>
+      </c>
+      <c r="O11">
+        <v>0.03655449159125106</v>
+      </c>
+      <c r="P11">
+        <v>0.03655449159125106</v>
+      </c>
+      <c r="Q11">
+        <v>216.6199901113907</v>
+      </c>
+      <c r="R11">
+        <v>1949.579911002516</v>
+      </c>
+      <c r="S11">
+        <v>0.03439277374526892</v>
+      </c>
+      <c r="T11">
+        <v>0.03439277374526892</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.07269733333333334</v>
+      </c>
+      <c r="H12">
+        <v>0.218092</v>
+      </c>
+      <c r="I12">
+        <v>0.002044330126901222</v>
+      </c>
+      <c r="J12">
+        <v>0.002044330126901222</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>42.909214</v>
+      </c>
+      <c r="N12">
+        <v>128.727642</v>
+      </c>
+      <c r="O12">
+        <v>0.2422627718984814</v>
+      </c>
+      <c r="P12">
+        <v>0.2422627718984814</v>
+      </c>
+      <c r="Q12">
+        <v>3.119385433229333</v>
+      </c>
+      <c r="R12">
+        <v>28.074468899064</v>
+      </c>
+      <c r="S12">
+        <v>0.0004952650832186642</v>
+      </c>
+      <c r="T12">
+        <v>0.0004952650832186642</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.07269733333333334</v>
+      </c>
+      <c r="H13">
+        <v>0.218092</v>
+      </c>
+      <c r="I13">
+        <v>0.002044330126901222</v>
+      </c>
+      <c r="J13">
+        <v>0.002044330126901222</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>53.36146666666667</v>
+      </c>
+      <c r="N13">
+        <v>160.0844</v>
+      </c>
+      <c r="O13">
+        <v>0.3012755448569878</v>
+      </c>
+      <c r="P13">
+        <v>0.3012755448569878</v>
+      </c>
+      <c r="Q13">
+        <v>3.879236329422223</v>
+      </c>
+      <c r="R13">
+        <v>34.91312696480001</v>
+      </c>
+      <c r="S13">
+        <v>0.0006159066728497205</v>
+      </c>
+      <c r="T13">
+        <v>0.0006159066728497205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.07269733333333334</v>
+      </c>
+      <c r="H14">
+        <v>0.218092</v>
+      </c>
+      <c r="I14">
+        <v>0.002044330126901222</v>
+      </c>
+      <c r="J14">
+        <v>0.002044330126901222</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>39.98186433333333</v>
+      </c>
+      <c r="N14">
+        <v>119.945593</v>
+      </c>
+      <c r="O14">
+        <v>0.2257351364921847</v>
+      </c>
+      <c r="P14">
+        <v>0.2257351364921847</v>
+      </c>
+      <c r="Q14">
+        <v>2.906574918728444</v>
+      </c>
+      <c r="R14">
+        <v>26.159174268556</v>
+      </c>
+      <c r="S14">
+        <v>0.0004614771402311326</v>
+      </c>
+      <c r="T14">
+        <v>0.0004614771402311325</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.07269733333333334</v>
+      </c>
+      <c r="H15">
+        <v>0.218092</v>
+      </c>
+      <c r="I15">
+        <v>0.002044330126901222</v>
+      </c>
+      <c r="J15">
+        <v>0.002044330126901222</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>34.39145933333334</v>
+      </c>
+      <c r="N15">
+        <v>103.174378</v>
+      </c>
+      <c r="O15">
+        <v>0.1941720551610951</v>
+      </c>
+      <c r="P15">
+        <v>0.1941720551610951</v>
+      </c>
+      <c r="Q15">
+        <v>2.500167382975111</v>
+      </c>
+      <c r="R15">
+        <v>22.501506446776</v>
+      </c>
+      <c r="S15">
+        <v>0.0003969517821681526</v>
+      </c>
+      <c r="T15">
+        <v>0.0003969517821681525</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.07269733333333334</v>
+      </c>
+      <c r="H16">
+        <v>0.218092</v>
+      </c>
+      <c r="I16">
+        <v>0.002044330126901222</v>
+      </c>
+      <c r="J16">
+        <v>0.002044330126901222</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>6.474476</v>
+      </c>
+      <c r="N16">
+        <v>19.423428</v>
+      </c>
+      <c r="O16">
+        <v>0.03655449159125106</v>
+      </c>
+      <c r="P16">
+        <v>0.03655449159125106</v>
+      </c>
+      <c r="Q16">
+        <v>0.4706771399306667</v>
+      </c>
+      <c r="R16">
+        <v>4.236094259376</v>
+      </c>
+      <c r="S16">
+        <v>7.472944843355192E-05</v>
+      </c>
+      <c r="T16">
+        <v>7.472944843355192E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.065122</v>
+      </c>
+      <c r="H17">
+        <v>0.195366</v>
+      </c>
+      <c r="I17">
+        <v>0.001831303301231517</v>
+      </c>
+      <c r="J17">
+        <v>0.001831303301231517</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>42.909214</v>
+      </c>
+      <c r="N17">
+        <v>128.727642</v>
+      </c>
+      <c r="O17">
+        <v>0.2422627718984814</v>
+      </c>
+      <c r="P17">
+        <v>0.2422627718984814</v>
+      </c>
+      <c r="Q17">
+        <v>2.794333834108</v>
+      </c>
+      <c r="R17">
+        <v>25.149004506972</v>
+      </c>
+      <c r="S17">
+        <v>0.000443656613943187</v>
+      </c>
+      <c r="T17">
+        <v>0.0004436566139431871</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.425492277760633</v>
-      </c>
-      <c r="H11">
-        <v>0.425492277760633</v>
-      </c>
-      <c r="I11">
-        <v>0.01278328267721355</v>
-      </c>
-      <c r="J11">
-        <v>0.01278328267721355</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>6.17020432623986</v>
-      </c>
-      <c r="N11">
-        <v>6.17020432623986</v>
-      </c>
-      <c r="O11">
-        <v>0.03531473908425267</v>
-      </c>
-      <c r="P11">
-        <v>0.03531473908425267</v>
-      </c>
-      <c r="Q11">
-        <v>2.62537429302031</v>
-      </c>
-      <c r="R11">
-        <v>2.62537429302031</v>
-      </c>
-      <c r="S11">
-        <v>0.0004514382923860434</v>
-      </c>
-      <c r="T11">
-        <v>0.0004514382923860434</v>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.065122</v>
+      </c>
+      <c r="H18">
+        <v>0.195366</v>
+      </c>
+      <c r="I18">
+        <v>0.001831303301231517</v>
+      </c>
+      <c r="J18">
+        <v>0.001831303301231517</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>53.36146666666667</v>
+      </c>
+      <c r="N18">
+        <v>160.0844</v>
+      </c>
+      <c r="O18">
+        <v>0.3012755448569878</v>
+      </c>
+      <c r="P18">
+        <v>0.3012755448569878</v>
+      </c>
+      <c r="Q18">
+        <v>3.475005432266667</v>
+      </c>
+      <c r="R18">
+        <v>31.2750488904</v>
+      </c>
+      <c r="S18">
+        <v>0.0005517268998769258</v>
+      </c>
+      <c r="T18">
+        <v>0.0005517268998769258</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.065122</v>
+      </c>
+      <c r="H19">
+        <v>0.195366</v>
+      </c>
+      <c r="I19">
+        <v>0.001831303301231517</v>
+      </c>
+      <c r="J19">
+        <v>0.001831303301231517</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>39.98186433333333</v>
+      </c>
+      <c r="N19">
+        <v>119.945593</v>
+      </c>
+      <c r="O19">
+        <v>0.2257351364921847</v>
+      </c>
+      <c r="P19">
+        <v>0.2257351364921847</v>
+      </c>
+      <c r="Q19">
+        <v>2.603698969115333</v>
+      </c>
+      <c r="R19">
+        <v>23.433290722038</v>
+      </c>
+      <c r="S19">
+        <v>0.000413389500662085</v>
+      </c>
+      <c r="T19">
+        <v>0.000413389500662085</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.065122</v>
+      </c>
+      <c r="H20">
+        <v>0.195366</v>
+      </c>
+      <c r="I20">
+        <v>0.001831303301231517</v>
+      </c>
+      <c r="J20">
+        <v>0.001831303301231517</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>34.39145933333334</v>
+      </c>
+      <c r="N20">
+        <v>103.174378</v>
+      </c>
+      <c r="O20">
+        <v>0.1941720551610951</v>
+      </c>
+      <c r="P20">
+        <v>0.1941720551610951</v>
+      </c>
+      <c r="Q20">
+        <v>2.239640614705333</v>
+      </c>
+      <c r="R20">
+        <v>20.156765532348</v>
+      </c>
+      <c r="S20">
+        <v>0.0003555879256234217</v>
+      </c>
+      <c r="T20">
+        <v>0.0003555879256234217</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.065122</v>
+      </c>
+      <c r="H21">
+        <v>0.195366</v>
+      </c>
+      <c r="I21">
+        <v>0.001831303301231517</v>
+      </c>
+      <c r="J21">
+        <v>0.001831303301231517</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>6.474476</v>
+      </c>
+      <c r="N21">
+        <v>19.423428</v>
+      </c>
+      <c r="O21">
+        <v>0.03655449159125106</v>
+      </c>
+      <c r="P21">
+        <v>0.03655449159125106</v>
+      </c>
+      <c r="Q21">
+        <v>0.421630826072</v>
+      </c>
+      <c r="R21">
+        <v>3.794677434648</v>
+      </c>
+      <c r="S21">
+        <v>6.69423611258978E-05</v>
+      </c>
+      <c r="T21">
+        <v>6.694236112589782E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.4408796666666667</v>
+      </c>
+      <c r="H22">
+        <v>1.322639</v>
+      </c>
+      <c r="I22">
+        <v>0.01239802814736215</v>
+      </c>
+      <c r="J22">
+        <v>0.01239802814736215</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>42.909214</v>
+      </c>
+      <c r="N22">
+        <v>128.727642</v>
+      </c>
+      <c r="O22">
+        <v>0.2422627718984814</v>
+      </c>
+      <c r="P22">
+        <v>0.2422627718984814</v>
+      </c>
+      <c r="Q22">
+        <v>18.91779996524867</v>
+      </c>
+      <c r="R22">
+        <v>170.260199687238</v>
+      </c>
+      <c r="S22">
+        <v>0.003003580665055348</v>
+      </c>
+      <c r="T22">
+        <v>0.003003580665055348</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.4408796666666667</v>
+      </c>
+      <c r="H23">
+        <v>1.322639</v>
+      </c>
+      <c r="I23">
+        <v>0.01239802814736215</v>
+      </c>
+      <c r="J23">
+        <v>0.01239802814736215</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>53.36146666666667</v>
+      </c>
+      <c r="N23">
+        <v>160.0844</v>
+      </c>
+      <c r="O23">
+        <v>0.3012755448569878</v>
+      </c>
+      <c r="P23">
+        <v>0.3012755448569878</v>
+      </c>
+      <c r="Q23">
+        <v>23.52598563684445</v>
+      </c>
+      <c r="R23">
+        <v>211.7338707316</v>
+      </c>
+      <c r="S23">
+        <v>0.003735222685248801</v>
+      </c>
+      <c r="T23">
+        <v>0.003735222685248801</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.4408796666666667</v>
+      </c>
+      <c r="H24">
+        <v>1.322639</v>
+      </c>
+      <c r="I24">
+        <v>0.01239802814736215</v>
+      </c>
+      <c r="J24">
+        <v>0.01239802814736215</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>39.98186433333333</v>
+      </c>
+      <c r="N24">
+        <v>119.945593</v>
+      </c>
+      <c r="O24">
+        <v>0.2257351364921847</v>
+      </c>
+      <c r="P24">
+        <v>0.2257351364921847</v>
+      </c>
+      <c r="Q24">
+        <v>17.62719101999189</v>
+      </c>
+      <c r="R24">
+        <v>158.644719179927</v>
+      </c>
+      <c r="S24">
+        <v>0.002798670576078742</v>
+      </c>
+      <c r="T24">
+        <v>0.002798670576078742</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.4408796666666667</v>
+      </c>
+      <c r="H25">
+        <v>1.322639</v>
+      </c>
+      <c r="I25">
+        <v>0.01239802814736215</v>
+      </c>
+      <c r="J25">
+        <v>0.01239802814736215</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>34.39145933333334</v>
+      </c>
+      <c r="N25">
+        <v>103.174378</v>
+      </c>
+      <c r="O25">
+        <v>0.1941720551610951</v>
+      </c>
+      <c r="P25">
+        <v>0.1941720551610951</v>
+      </c>
+      <c r="Q25">
+        <v>15.16249512706023</v>
+      </c>
+      <c r="R25">
+        <v>136.462456143542</v>
+      </c>
+      <c r="S25">
+        <v>0.002407350605318412</v>
+      </c>
+      <c r="T25">
+        <v>0.002407350605318412</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.4408796666666667</v>
+      </c>
+      <c r="H26">
+        <v>1.322639</v>
+      </c>
+      <c r="I26">
+        <v>0.01239802814736215</v>
+      </c>
+      <c r="J26">
+        <v>0.01239802814736215</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>6.474476</v>
+      </c>
+      <c r="N26">
+        <v>19.423428</v>
+      </c>
+      <c r="O26">
+        <v>0.03655449159125106</v>
+      </c>
+      <c r="P26">
+        <v>0.03655449159125106</v>
+      </c>
+      <c r="Q26">
+        <v>2.854464820721334</v>
+      </c>
+      <c r="R26">
+        <v>25.69018338649201</v>
+      </c>
+      <c r="S26">
+        <v>0.0004532036156608435</v>
+      </c>
+      <c r="T26">
+        <v>0.0004532036156608435</v>
       </c>
     </row>
   </sheetData>
